--- a/cme/tasafija/tasa_cme.xlsx
+++ b/cme/tasafija/tasa_cme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\Work\py\quant\cme\tasafija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB02D6-4893-4957-984D-7BE0AE46414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D39F96-32D1-4446-A337-CBB3296551AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,20 +19,8 @@
     <sheet name="indice" sheetId="4" r:id="rId4"/>
     <sheet name="mep_stats" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">stats!$A$1:$G$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -41,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>T15E7</t>
   </si>
@@ -214,9 +202,6 @@
     <t>Cantidad de datos en blanco</t>
   </si>
   <si>
-    <t>PROMEDIO</t>
-  </si>
-  <si>
     <t>Indice</t>
   </si>
 </sst>
@@ -224,9 +209,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -288,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -297,13 +281,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,14 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1986"/>
   <sheetViews>
-    <sheetView topLeftCell="A950" workbookViewId="0">
-      <selection activeCell="AN969" sqref="AN969"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -76661,987 +76638,1080 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(B3:B41)</f>
-        <v>4.1400999977006747E-2</v>
-      </c>
-      <c r="C2" s="5">
-        <f>AVERAGE(C3:C41)</f>
-        <v>0.24749773841667178</v>
-      </c>
-      <c r="D2" s="5">
-        <f>AVERAGE(D3:D41)</f>
-        <v>-0.1873510765894694</v>
-      </c>
-      <c r="E2" s="5">
-        <f>AVERAGE(E3:E41)</f>
-        <v>-6.5852280615773334E-2</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-0.25605610841906512</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.47050377353275541</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-0.42559375642821567</v>
+      </c>
+      <c r="E2">
+        <v>12.12515788042991</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.17597778358738331</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-8.4713092186487787E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-0.99637608711906189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-7.1146682099614944E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.36052748064677542</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.27226552659630349</v>
+      </c>
+      <c r="E3">
+        <v>8.4616334396175752</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.120112559341795</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-6.0617834115425678E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-0.31673388685647769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.193316058777145</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.29566800655325448</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-0.25389439009155412</v>
+      </c>
+      <c r="E4">
+        <v>9.3208672270595301</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.1193884215757334</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-6.5627813410061575E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.64373253517303131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.20947821960182189</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.25951457372877063</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.20451077401643669</v>
+      </c>
+      <c r="E5">
+        <v>7.4498478229133616</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8.9801436471079535E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-4.6597088892463633E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.78923879529249252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.55193280372773845</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.21140136360228709</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-0.158725085708744</v>
+      </c>
+      <c r="E6">
+        <v>7.610415182341403</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.0359319245434704E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>-5.0624457912588731E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.619526227867861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.4116555396191921</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.22861845222931429</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-0.1623948485606205</v>
+      </c>
+      <c r="E7">
+        <v>5.963375066528406</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7.4512256636073387E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>-4.7603907887402867E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.3603925416630238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.32649918323773131</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.22226609551847709</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-0.14929340372529279</v>
+      </c>
+      <c r="E8">
+        <v>6.3299262611669498</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.6529919459903705E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-4.4800544386863678E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.3382542583883961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.25077069291682991</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.14681028845880911</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-8.6651111287109908E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.5012384580679861</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.2911940845652359E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-4.2649013022951668E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3.17424882967883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.22959588297913711</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.22592492883679111</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-0.17194789181688239</v>
+      </c>
+      <c r="E10">
+        <v>7.6174267967143301</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.0790663538241062E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-5.3854157125027731E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.135665663057118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B11" s="4">
         <v>0.35830441179866201</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C11" s="4">
         <v>0.22112282940501141</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D11" s="4">
         <v>-0.17995859901193401</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E11">
+        <v>8.6282161254360652</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.6276458100333533E-2</v>
+      </c>
+      <c r="G11" s="4">
         <v>-4.9580033558681701E-2</v>
       </c>
-      <c r="F3" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="H11" s="6">
         <v>1.442146860505088</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.25077069291682991</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.14681028845880911</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-8.6651111287109908E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-4.2649013022951668E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>45643</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3.17424882967883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.15030023958971311</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.27982316391930723</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-0.26000492934525149</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-6.4738713999508188E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>45433</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.025205912053708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.22959588297913711</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.22592492883679111</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-0.17194789181688239</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-5.3854157125027731E-2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1.135665663057118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5.9716917554783588E-2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.18609606387346289</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-9.2981863502689971E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-3.8791709994630032E-2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44819</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.106232917874072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-0.16338788828064979</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.4580246339400792</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-0.1772499408804675</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-5.5874747718159493E-2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45296</v>
-      </c>
-      <c r="G8" s="7">
-        <v>-7.0107700150911327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5">
-        <v>-2.562409859884995E-2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.40948951967800268</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-0.21971447453102069</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-0.1382214552885864</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44839</v>
-      </c>
-      <c r="G9" s="7">
-        <v>-8.1921194243137596E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.32649918323773131</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.22226609551847709</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-0.14929340372529279</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-4.4800544386863678E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>45643</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2.3382542583883961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2.7970155960878929E-2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.19477686649431081</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-0.116793235106094</v>
-      </c>
-      <c r="E11" s="5">
-        <v>-5.6522224335245543E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <v>44516</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.35690614893265588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>-3.7102970176752681E-2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.51227459434746436</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>-0.39142463149410872</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
+        <v>24.804947131112481</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.8885894357770473E-2</v>
+      </c>
+      <c r="G12" s="4">
         <v>-0.22275388335317789</v>
       </c>
-      <c r="F12" s="8">
-        <v>45478</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="H12" s="6">
         <v>-0.1300632408992547</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-7.7929685781452651E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.47122442531248288</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-0.39538962504477848</v>
+      </c>
+      <c r="E13">
+        <v>26.61386223182738</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8.0722930699557702E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-0.21603190629605809</v>
+      </c>
+      <c r="H13" s="6">
+        <v>-0.29515979926309382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.15030023958971311</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.27982316391930723</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-0.26000492934525149</v>
+      </c>
+      <c r="E14">
+        <v>5.3731390853163017</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.2841175762902952E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-6.4738713999508188E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.025205912053708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-0.16338788828064979</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.4580246339400792</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-0.1772499408804675</v>
+      </c>
+      <c r="E15">
+        <v>-1.2561226661882829</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.5409677386492117E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-5.5874747718159493E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>-7.0107700150911327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-0.25830274383895618</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.48058997324793667</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-0.34332602046713168</v>
+      </c>
+      <c r="E16">
+        <v>26.14179450418116</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.7853167634219242E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-0.1938266504399854</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-2.5271747583281599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-4.1693675090208049E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.19763239507022429</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-0.137343196006946</v>
+      </c>
+      <c r="E17">
+        <v>1.616475867859646</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.417616802629087E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-4.0648699436906438E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-0.62417782411821499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-3.9406626059326211E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.21635988980585211</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-0.1237214387238616</v>
+      </c>
+      <c r="E18">
+        <v>2.1669978940018502</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.0237132319889719E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-4.9833773729342189E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-4.5533263708322932E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-2.562409859884995E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.40948951967800268</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-0.21971447453102069</v>
+      </c>
+      <c r="E19">
+        <v>17.159714602713969</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.14534162259126029</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-0.1382214552885864</v>
+      </c>
+      <c r="H19" s="6">
+        <v>-8.1921194243137596E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4.0117613757366888E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.18359475419953961</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-6.6588203940542864E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.0138023179815789</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.5741513813619612E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-3.3114814556527247E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.61351257906884149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5.9716917554783588E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.18609606387346289</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-9.2981863502689971E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.0318298213703381</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.560250658055702E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-3.8791709994630032E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.106232917874072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-7.2881988055046754E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.31256765510028173</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-0.26627218808009268</v>
+      </c>
+      <c r="E22">
+        <v>6.7316378889433111</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8.1613987449052142E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-8.6807080581713492E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-0.54473786356209963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-0.12060266874827801</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.33290846687902781</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-0.33942545444862893</v>
+      </c>
+      <c r="E23">
+        <v>5.8286959465011616</v>
+      </c>
+      <c r="F23" s="4">
+        <v>9.1021748433040714E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-8.9053077152092985E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-0.8686067101586642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-0.19056449048437141</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.33164251038860532</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-0.34599294995829721</v>
+      </c>
+      <c r="E24">
+        <v>6.9774856416296434</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9.540553169140549E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-9.5702110150581401E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>-1.327661306794977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-0.13637246745942361</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.3336060517856953</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-0.34597156241732058</v>
+      </c>
+      <c r="E25">
+        <v>5.999431840425034</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8.6147812896589501E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-9.3664996753556093E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>-0.92291122349636234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-4.456523726075412E-2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.31809907568131263</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-0.34051674884127381</v>
+      </c>
+      <c r="E26">
+        <v>6.2929874195070026</v>
+      </c>
+      <c r="F26" s="4">
+        <v>8.459461558718985E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-8.9917502996105722E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-0.29603045895652103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B27" s="4">
         <v>0.12567216858448901</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C27" s="4">
         <v>0.205137541901936</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D27" s="4">
         <v>-0.10135382464130301</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E27">
+        <v>1.355950446125735</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.4052437937589712E-2</v>
+      </c>
+      <c r="G27" s="4">
         <v>-4.2705522984720933E-2</v>
       </c>
-      <c r="F13" s="8">
-        <v>44672</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="H27" s="6">
         <v>1.4839145815564341</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5">
-        <v>-4.456523726075412E-2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.31809907568131263</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-0.34051674884127381</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-8.9917502996105722E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>44746</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-0.29603045895652103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.10801086469598881</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.20453834230542381</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-0.1033058246412646</v>
+      </c>
+      <c r="E28">
+        <v>1.280903405821036</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.4044808309190107E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>-4.2782319948347393E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.1700573262088481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>3.107986819326225E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.21738984687466009</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-0.16765878381630059</v>
+      </c>
+      <c r="E29">
+        <v>1.4783414174719529</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.2231922645841397E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-4.210426947345642E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.34783812052493568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2.7970155960878929E-2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.19477686649431081</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-0.116793235106094</v>
+      </c>
+      <c r="E30">
+        <v>4.7519028293842549</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.2386231727237071E-2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>-5.6522224335245543E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.35690614893265588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9.4138561713272395E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.21162487273687819</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-0.11589753518724941</v>
+      </c>
+      <c r="E31">
+        <v>3.0453214141726721</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.2263661456590778E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-5.6755936835902937E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.050312652752178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5.8749961235573973E-2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.14473307940836419</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-6.7670370201616814E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.136392508932059</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.0349594388453228E-2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-1.8755699031980121E-2</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.7137862370907799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.0631843342615168E-2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.1239228213525386</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-8.9000188940506875E-2</v>
+      </c>
+      <c r="E33">
+        <v>1.9237507927696591</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.988275459355411E-2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-1.8611164683140679E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1.1159919294518521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-2.0109941523187569E-3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>9.1973969325754426E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-8.8785113099784471E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.6492418663293189</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2.3742461770886888E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-1.7815777423288971E-2</v>
+      </c>
+      <c r="H34" s="6">
+        <v>-5.5154819408241809E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-4.3059384202778772E-2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>6.9183135243037666E-2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-8.0817921419225183E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.6695978331100549</v>
+      </c>
+      <c r="F35" s="4">
+        <v>7.5196051012127842E-3</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-1.6634200544173292E-2</v>
+      </c>
+      <c r="H35" s="6">
+        <v>-1.670011009414033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-2.697557523087701E-2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6.820705611733921E-2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-7.8025806137133197E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.50332150057111</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1.114776668689824E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-1.945826342079247E-2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>-0.82814563319301271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B37" s="4">
         <v>1.8826457125378231E-3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C37" s="4">
         <v>4.7194165870262567E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D37" s="4">
         <v>-3.5151688486074653E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E37">
+        <v>1.1582790386248021</v>
+      </c>
+      <c r="F37" s="4">
+        <v>8.4683183911725517E-3</v>
+      </c>
+      <c r="G37" s="4">
         <v>-9.8043422527737401E-3</v>
       </c>
-      <c r="F15" s="8">
-        <v>44372</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="H37" s="6">
         <v>7.7854303627768504E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5.8749961235573973E-2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.14473307940836419</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-6.7670370201616814E-2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>-1.8755699031980121E-2</v>
-      </c>
-      <c r="F16" s="8">
-        <v>44309</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1.7137862370907799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="5">
-        <v>-4.3059384202778772E-2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6.9183135243037666E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-8.0817921419225183E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>-1.6634200544173292E-2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>44309</v>
-      </c>
-      <c r="G17" s="7">
-        <v>-1.670011009414033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5.0631843342615168E-2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.1239228213525386</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-8.9000188940506875E-2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>-1.8611164683140679E-2</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44309</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1.1159919294518521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3.107986819326225E-2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.21738984687466009</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.16765878381630059</v>
-      </c>
-      <c r="E19" s="5">
-        <v>-4.210426947345642E-2</v>
-      </c>
-      <c r="F19" s="8">
-        <v>44672</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.34783812052493568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5">
-        <v>-4.1693675090208049E-2</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.19763239507022429</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-0.137343196006946</v>
-      </c>
-      <c r="E20" s="5">
-        <v>-4.0648699436906438E-2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>45036</v>
-      </c>
-      <c r="G20" s="7">
-        <v>-0.62417782411821499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.55193280372773845</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.21140136360228709</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.158725085708744</v>
-      </c>
-      <c r="E21" s="5">
-        <v>-5.0624457912588731E-2</v>
-      </c>
-      <c r="F21" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G21" s="7">
-        <v>2.619526227867861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5">
-        <v>-2.0109941523187569E-3</v>
-      </c>
-      <c r="C22" s="5">
-        <v>9.1973969325754426E-2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-8.8785113099784471E-2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>-1.7815777423288971E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>44309</v>
-      </c>
-      <c r="G22" s="7">
-        <v>-5.5154819408241809E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B38" s="4">
         <v>-3.8522780689181357E-2</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C38" s="4">
         <v>0.1091071459447847</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D38" s="4">
         <v>-0.11334966387113141</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E38">
+        <v>41.655984957362321</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.6715109414351059E-2</v>
+      </c>
+      <c r="G38" s="4">
         <v>-5.8612190768614958E-2</v>
       </c>
-      <c r="F23" s="8">
-        <v>44516</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="H38" s="6">
         <v>-0.71443681751194876</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5">
-        <v>-7.2881988055046754E-2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.31256765510028173</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-0.26627218808009268</v>
-      </c>
-      <c r="E24" s="5">
-        <v>-8.6807080581713492E-2</v>
-      </c>
-      <c r="F24" s="8">
-        <v>44746</v>
-      </c>
-      <c r="G24" s="7">
-        <v>-0.54473786356209963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5">
-        <v>-2.697557523087701E-2</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6.820705611733921E-2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-7.8025806137133197E-2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>-1.945826342079247E-2</v>
-      </c>
-      <c r="F25" s="8">
-        <v>44309</v>
-      </c>
-      <c r="G25" s="7">
-        <v>-0.82814563319301271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5">
-        <v>-0.19056449048437141</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.33164251038860532</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-0.34599294995829721</v>
-      </c>
-      <c r="E26" s="5">
-        <v>-9.5702110150581401E-2</v>
-      </c>
-      <c r="F26" s="8">
-        <v>44746</v>
-      </c>
-      <c r="G26" s="7">
-        <v>-1.327661306794977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.4116555396191921</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.22861845222931429</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-0.1623948485606205</v>
-      </c>
-      <c r="E27" s="5">
-        <v>-4.7603907887402867E-2</v>
-      </c>
-      <c r="F27" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G27" s="7">
-        <v>2.3603925416630238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B39" s="4">
         <v>1.4638826330864999E-2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C39" s="4">
         <v>0.13528205180448949</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D39" s="4">
         <v>-0.1115388549971723</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E39">
+        <v>16.46640412555087</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1.975746009186799E-2</v>
+      </c>
+      <c r="G39" s="4">
         <v>-5.4930932228195312E-2</v>
       </c>
-      <c r="F28" s="8">
-        <v>44516</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="H39" s="6">
         <v>0.21656937562318809</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B40" s="4">
         <v>-6.9083359051829829E-2</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C40" s="4">
         <v>0.1630499371288972</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D40" s="4">
         <v>-0.12618456151894461</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E40">
+        <v>8.6901405943237986</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3.2231922645841397E-2</v>
+      </c>
+      <c r="G40" s="4">
         <v>-5.709703513964081E-2</v>
       </c>
-      <c r="F29" s="8">
-        <v>44516</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="H40" s="6">
         <v>-0.84456665745247517</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="5">
-        <v>-7.7929685781452651E-2</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.47122442531248288</v>
-      </c>
-      <c r="D30" s="5">
-        <v>-0.39538962504477848</v>
-      </c>
-      <c r="E30" s="5">
-        <v>-0.21603190629605809</v>
-      </c>
-      <c r="F30" s="8">
-        <v>45432</v>
-      </c>
-      <c r="G30" s="7">
-        <v>-0.29515979926309382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="5">
-        <v>-0.13637246745942361</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.3336060517856953</v>
-      </c>
-      <c r="D31" s="5">
-        <v>-0.34597156241732058</v>
-      </c>
-      <c r="E31" s="5">
-        <v>-9.3664996753556093E-2</v>
-      </c>
-      <c r="F31" s="8">
-        <v>44746</v>
-      </c>
-      <c r="G31" s="7">
-        <v>-0.92291122349636234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5">
-        <v>9.4138561713272395E-2</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.21162487273687819</v>
-      </c>
-      <c r="D32" s="5">
-        <v>-0.11589753518724941</v>
-      </c>
-      <c r="E32" s="5">
-        <v>-5.6755936835902937E-2</v>
-      </c>
-      <c r="F32" s="8">
-        <v>44516</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1.050312652752178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="5">
-        <v>4.0117613757366888E-2</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.18359475419953961</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-6.6588203940542864E-2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>-3.3114814556527247E-2</v>
-      </c>
-      <c r="F33" s="8">
-        <v>44922</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.61351257906884149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="5">
-        <v>-0.12060266874827801</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.33290846687902781</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-0.33942545444862893</v>
-      </c>
-      <c r="E34" s="5">
-        <v>-8.9053077152092985E-2</v>
-      </c>
-      <c r="F34" s="8">
-        <v>44746</v>
-      </c>
-      <c r="G34" s="7">
-        <v>-0.8686067101586642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="5">
-        <v>-0.25830274383895618</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.48058997324793667</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-0.34332602046713168</v>
-      </c>
-      <c r="E35" s="5">
-        <v>-0.1938266504399854</v>
-      </c>
-      <c r="F35" s="8">
-        <v>45152</v>
-      </c>
-      <c r="G35" s="7">
-        <v>-2.5271747583281599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.10801086469598881</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.20453834230542381</v>
-      </c>
-      <c r="D36" s="5">
-        <v>-0.1033058246412646</v>
-      </c>
-      <c r="E36" s="5">
-        <v>-4.2782319948347393E-2</v>
-      </c>
-      <c r="F36" s="8">
-        <v>44672</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1.1700573262088481</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="5">
-        <v>-3.9406626059326211E-3</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.21635988980585211</v>
-      </c>
-      <c r="D37" s="5">
-        <v>-0.1237214387238616</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-4.9833773729342189E-2</v>
-      </c>
-      <c r="F37" s="8">
-        <v>45064</v>
-      </c>
-      <c r="G37" s="7">
-        <v>-4.5533263708322932E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.193316058777145</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0.29566800655325448</v>
-      </c>
-      <c r="D38" s="5">
-        <v>-0.25389439009155412</v>
-      </c>
-      <c r="E38" s="5">
-        <v>-6.5627813410061575E-2</v>
-      </c>
-      <c r="F38" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0.64373253517303131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="5">
-        <v>-0.25605610841906512</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0.47050377353275541</v>
-      </c>
-      <c r="D39" s="5">
-        <v>-0.42559375642821567</v>
-      </c>
-      <c r="E39" s="5">
-        <v>-8.4713092186487787E-2</v>
-      </c>
-      <c r="F39" s="8">
-        <v>45918</v>
-      </c>
-      <c r="G39" s="7">
-        <v>-0.99637608711906189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.20947821960182189</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0.25951457372877063</v>
-      </c>
-      <c r="D40" s="5">
-        <v>-0.20451077401643669</v>
-      </c>
-      <c r="E40" s="5">
-        <v>-4.6597088892463633E-2</v>
-      </c>
-      <c r="F40" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0.78923879529249252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5">
-        <v>-7.1146682099614944E-2</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0.36052748064677542</v>
-      </c>
-      <c r="D41" s="5">
-        <v>-0.27226552659630349</v>
-      </c>
-      <c r="E41" s="5">
-        <v>-6.0617834115425678E-2</v>
-      </c>
-      <c r="F41" s="8">
-        <v>45734</v>
-      </c>
-      <c r="G41" s="7">
-        <v>-0.31673388685647769</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B2:B41">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C2:C40">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C41">
+  <conditionalFormatting sqref="B2:B40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -77670,7 +77740,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
